--- a/python/relativopy.xlsx
+++ b/python/relativopy.xlsx
@@ -3117,7 +3117,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>0.9840276317299593</v>
+        <v>0.9849350607171961</v>
       </c>
       <c r="E5" t="s">
         <v>446</v>
@@ -10498,7 +10498,7 @@
         <v>332</v>
       </c>
       <c r="D328">
-        <v>0.9467635826474783</v>
+        <v>0.8578335928594584</v>
       </c>
       <c r="E328" t="s">
         <v>769</v>
@@ -11816,6 +11816,9 @@
       <c r="C386" t="s">
         <v>390</v>
       </c>
+      <c r="D386">
+        <v>1.007336728008746</v>
+      </c>
       <c r="E386" t="s">
         <v>827</v>
       </c>
@@ -11836,6 +11839,9 @@
       <c r="C387" t="s">
         <v>391</v>
       </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
       <c r="E387" t="s">
         <v>828</v>
       </c>
@@ -40371,7 +40377,7 @@
         <v>72</v>
       </c>
       <c r="D1631">
-        <v>0.9671956573997891</v>
+        <v>0.9941136668260031</v>
       </c>
       <c r="E1631" t="s">
         <v>509</v>
@@ -41222,7 +41228,7 @@
         <v>109</v>
       </c>
       <c r="D1668">
-        <v>1.038962881161558</v>
+        <v>0.9962212235155844</v>
       </c>
       <c r="E1668" t="s">
         <v>546</v>
@@ -45422,7 +45428,7 @@
         <v>311</v>
       </c>
       <c r="D1851">
-        <v>0.9497373718064996</v>
+        <v>0.9491510821409437</v>
       </c>
       <c r="E1851" t="s">
         <v>748</v>
@@ -45445,7 +45451,7 @@
         <v>312</v>
       </c>
       <c r="D1852">
-        <v>0.9504919928311677</v>
+        <v>0.9498496752820241</v>
       </c>
       <c r="E1852" t="s">
         <v>749</v>
@@ -50585,7 +50591,7 @@
         <v>114</v>
       </c>
       <c r="D2076">
-        <v>1.007472832378094</v>
+        <v>1.007876517252367</v>
       </c>
       <c r="E2076" t="s">
         <v>551</v>
@@ -54470,7 +54476,7 @@
         <v>286</v>
       </c>
       <c r="D2247">
-        <v>1.014079754523293</v>
+        <v>1</v>
       </c>
       <c r="E2247" t="s">
         <v>723</v>
@@ -68082,7 +68088,7 @@
         <v>56</v>
       </c>
       <c r="D2840">
-        <v>0.9951208469763878</v>
+        <v>0.978253793527284</v>
       </c>
       <c r="E2840" t="s">
         <v>493</v>
@@ -69347,7 +69353,7 @@
         <v>111</v>
       </c>
       <c r="D2895">
-        <v>1.021050185658809</v>
+        <v>0.9969347719289143</v>
       </c>
       <c r="E2895" t="s">
         <v>548</v>
@@ -72234,7 +72240,7 @@
         <v>268</v>
       </c>
       <c r="D3023">
-        <v>1.577199172672967</v>
+        <v>1</v>
       </c>
       <c r="E3023" t="s">
         <v>705</v>

--- a/python/relativopy.xlsx
+++ b/python/relativopy.xlsx
@@ -3048,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1.00883262780844</v>
+        <v>1.012280586944952</v>
       </c>
       <c r="E2" t="s">
         <v>443</v>
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>0.9990508858292386</v>
+        <v>0.9973971487935189</v>
       </c>
       <c r="E19" t="s">
         <v>460</v>
@@ -3991,7 +3991,7 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>0.99317434056284</v>
+        <v>0.9935094926401599</v>
       </c>
       <c r="E43" t="s">
         <v>484</v>
@@ -4129,7 +4129,7 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>0.993840890062005</v>
+        <v>0.9902348751629515</v>
       </c>
       <c r="E49" t="s">
         <v>490</v>
@@ -4244,7 +4244,7 @@
         <v>58</v>
       </c>
       <c r="D54">
-        <v>0.9866660754871895</v>
+        <v>0.9868466023629898</v>
       </c>
       <c r="E54" t="s">
         <v>495</v>
@@ -4497,7 +4497,7 @@
         <v>69</v>
       </c>
       <c r="D65">
-        <v>1.007710457549241</v>
+        <v>1.01315214766976</v>
       </c>
       <c r="E65" t="s">
         <v>506</v>
@@ -4543,7 +4543,7 @@
         <v>71</v>
       </c>
       <c r="D67">
-        <v>1.141638367923159</v>
+        <v>1.09559920381105</v>
       </c>
       <c r="E67" t="s">
         <v>508</v>
@@ -7472,7 +7472,7 @@
         <v>199</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0.9852919811325487</v>
       </c>
       <c r="E195" t="s">
         <v>636</v>
@@ -7495,7 +7495,7 @@
         <v>200</v>
       </c>
       <c r="D196">
-        <v>0.9901967014706502</v>
+        <v>0.9952604536308244</v>
       </c>
       <c r="E196" t="s">
         <v>637</v>
@@ -9994,7 +9994,7 @@
         <v>311</v>
       </c>
       <c r="D307">
-        <v>0.9743035603104556</v>
+        <v>0.9742980059520151</v>
       </c>
       <c r="E307" t="s">
         <v>748</v>
@@ -10017,7 +10017,7 @@
         <v>312</v>
       </c>
       <c r="D308">
-        <v>0.9669773252657133</v>
+        <v>0.9669719540211774</v>
       </c>
       <c r="E308" t="s">
         <v>749</v>
@@ -22616,7 +22616,7 @@
         <v>53</v>
       </c>
       <c r="D858">
-        <v>0.9422999295568432</v>
+        <v>0.9977171928161434</v>
       </c>
       <c r="E858" t="s">
         <v>490</v>
@@ -28146,7 +28146,7 @@
         <v>311</v>
       </c>
       <c r="D1100">
-        <v>0.9549668459905917</v>
+        <v>0.9549539162497772</v>
       </c>
       <c r="E1100" t="s">
         <v>748</v>
@@ -28169,7 +28169,7 @@
         <v>312</v>
       </c>
       <c r="D1101">
-        <v>0.96211899829216</v>
+        <v>0.9620975428473338</v>
       </c>
       <c r="E1101" t="s">
         <v>749</v>
@@ -40577,7 +40577,7 @@
         <v>53</v>
       </c>
       <c r="D1641">
-        <v>0.9639645058679235</v>
+        <v>0.9910605092385389</v>
       </c>
       <c r="E1641" t="s">
         <v>490</v>
@@ -49911,7 +49911,7 @@
         <v>53</v>
       </c>
       <c r="D2048">
-        <v>0.9421408294239985</v>
+        <v>0.9601008591332845</v>
       </c>
       <c r="E2048" t="s">
         <v>490</v>
@@ -50118,7 +50118,7 @@
         <v>62</v>
       </c>
       <c r="D2057">
-        <v>1.092675048335014</v>
+        <v>1.09267465855929</v>
       </c>
       <c r="E2057" t="s">
         <v>499</v>
@@ -52898,7 +52898,7 @@
         <v>184</v>
       </c>
       <c r="D2178">
-        <v>1.002113435191086</v>
+        <v>1.002111150027832</v>
       </c>
       <c r="E2178" t="s">
         <v>621</v>
@@ -68825,7 +68825,7 @@
         <v>53</v>
       </c>
       <c r="D2874">
-        <v>1.012313132037717</v>
+        <v>1.014872179760311</v>
       </c>
       <c r="E2874" t="s">
         <v>490</v>

--- a/python/relativopy.xlsx
+++ b/python/relativopy.xlsx
@@ -3232,7 +3232,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>0.9840895772897933</v>
+        <v>0.9825104153677248</v>
       </c>
       <c r="E10" t="s">
         <v>451</v>
@@ -3485,7 +3485,7 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>1.00705684790753</v>
+        <v>1.005606860231391</v>
       </c>
       <c r="E21" t="s">
         <v>462</v>
@@ -3669,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>0.9848632539822003</v>
+        <v>1.002355788080201</v>
       </c>
       <c r="E29" t="s">
         <v>470</v>
@@ -3991,7 +3991,7 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>0.9935094926401599</v>
+        <v>0.9942236364563733</v>
       </c>
       <c r="E43" t="s">
         <v>484</v>
@@ -4060,7 +4060,7 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>1.070374719994876</v>
+        <v>1.04971793089416</v>
       </c>
       <c r="E46" t="s">
         <v>487</v>
@@ -4175,7 +4175,7 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>1.02302889967793</v>
+        <v>1.01034779230664</v>
       </c>
       <c r="E51" t="s">
         <v>492</v>
@@ -4198,7 +4198,7 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>0.8436552765674689</v>
+        <v>0.8554156659053861</v>
       </c>
       <c r="E52" t="s">
         <v>493</v>
@@ -4313,7 +4313,7 @@
         <v>61</v>
       </c>
       <c r="D57">
-        <v>0.939139992462419</v>
+        <v>0.9482224291985343</v>
       </c>
       <c r="E57" t="s">
         <v>498</v>
@@ -4382,7 +4382,7 @@
         <v>64</v>
       </c>
       <c r="D60">
-        <v>1.099309605031923</v>
+        <v>1.066887661287458</v>
       </c>
       <c r="E60" t="s">
         <v>501</v>
@@ -4405,7 +4405,7 @@
         <v>65</v>
       </c>
       <c r="D61">
-        <v>1.080348576437187</v>
+        <v>1.062267558651758</v>
       </c>
       <c r="E61" t="s">
         <v>502</v>
@@ -4428,7 +4428,7 @@
         <v>66</v>
       </c>
       <c r="D62">
-        <v>1.10058055160792</v>
+        <v>1.064037785537673</v>
       </c>
       <c r="E62" t="s">
         <v>503</v>
@@ -4451,7 +4451,7 @@
         <v>67</v>
       </c>
       <c r="D63">
-        <v>1.11683512385085</v>
+        <v>1.100812380394261</v>
       </c>
       <c r="E63" t="s">
         <v>504</v>
@@ -4474,7 +4474,7 @@
         <v>68</v>
       </c>
       <c r="D64">
-        <v>1.020036801336738</v>
+        <v>1.006406738033424</v>
       </c>
       <c r="E64" t="s">
         <v>505</v>
@@ -4520,7 +4520,7 @@
         <v>70</v>
       </c>
       <c r="D66">
-        <v>1.152511692695285</v>
+        <v>1.123088075850453</v>
       </c>
       <c r="E66" t="s">
         <v>507</v>
@@ -4566,7 +4566,7 @@
         <v>72</v>
       </c>
       <c r="D68">
-        <v>1.048550444103953</v>
+        <v>1.024601518862333</v>
       </c>
       <c r="E68" t="s">
         <v>509</v>
@@ -4589,7 +4589,7 @@
         <v>73</v>
       </c>
       <c r="D69">
-        <v>0.995207868384517</v>
+        <v>0.9921143838407118</v>
       </c>
       <c r="E69" t="s">
         <v>510</v>
@@ -4681,7 +4681,7 @@
         <v>77</v>
       </c>
       <c r="D73">
-        <v>1.074612831424262</v>
+        <v>1.094745998178591</v>
       </c>
       <c r="E73" t="s">
         <v>514</v>
@@ -4704,7 +4704,7 @@
         <v>78</v>
       </c>
       <c r="D74">
-        <v>1.041467854492958</v>
+        <v>1.031308437191659</v>
       </c>
       <c r="E74" t="s">
         <v>515</v>
@@ -4750,7 +4750,7 @@
         <v>80</v>
       </c>
       <c r="D76">
-        <v>1.065069610548692</v>
+        <v>1.051005238192095</v>
       </c>
       <c r="E76" t="s">
         <v>517</v>
@@ -4796,7 +4796,7 @@
         <v>82</v>
       </c>
       <c r="D78">
-        <v>1.064378945656509</v>
+        <v>1.057151762135736</v>
       </c>
       <c r="E78" t="s">
         <v>519</v>
@@ -4842,7 +4842,7 @@
         <v>84</v>
       </c>
       <c r="D80">
-        <v>1.10290830447711</v>
+        <v>1.085008986533579</v>
       </c>
       <c r="E80" t="s">
         <v>521</v>
@@ -4957,7 +4957,7 @@
         <v>89</v>
       </c>
       <c r="D85">
-        <v>0.9945692989510442</v>
+        <v>0.9947466984303978</v>
       </c>
       <c r="E85" t="s">
         <v>526</v>
@@ -5164,7 +5164,7 @@
         <v>98</v>
       </c>
       <c r="D94">
-        <v>1.006904820669039</v>
+        <v>1.00756322792468</v>
       </c>
       <c r="E94" t="s">
         <v>535</v>
@@ -5348,7 +5348,7 @@
         <v>106</v>
       </c>
       <c r="D102">
-        <v>1.008818700604507</v>
+        <v>0.9849213752608887</v>
       </c>
       <c r="E102" t="s">
         <v>543</v>
@@ -5463,7 +5463,7 @@
         <v>111</v>
       </c>
       <c r="D107">
-        <v>0.9991660107983407</v>
+        <v>1.005154307539028</v>
       </c>
       <c r="E107" t="s">
         <v>548</v>
@@ -8305,7 +8305,7 @@
         <v>236</v>
       </c>
       <c r="D232">
-        <v>1.004255448745028</v>
+        <v>1.009075674931307</v>
       </c>
       <c r="E232" t="s">
         <v>673</v>
@@ -10477,7 +10477,7 @@
         <v>332</v>
       </c>
       <c r="D328">
-        <v>1.177794894990184</v>
+        <v>1.126426013520363</v>
       </c>
       <c r="E328" t="s">
         <v>769</v>
@@ -12198,7 +12198,7 @@
         <v>408</v>
       </c>
       <c r="D404">
-        <v>1</v>
+        <v>1.020676691729323</v>
       </c>
       <c r="E404" t="s">
         <v>845</v>
@@ -12310,7 +12310,7 @@
         <v>413</v>
       </c>
       <c r="D409">
-        <v>1.008367703137003</v>
+        <v>1.012358902931367</v>
       </c>
       <c r="E409" t="s">
         <v>850</v>
@@ -12402,7 +12402,7 @@
         <v>417</v>
       </c>
       <c r="D413">
-        <v>0.9949274397165087</v>
+        <v>0.9917555825956837</v>
       </c>
       <c r="E413" t="s">
         <v>854</v>
@@ -12974,7 +12974,7 @@
         <v>7</v>
       </c>
       <c r="D438">
-        <v>0.9661805341359866</v>
+        <v>0.9957574469976909</v>
       </c>
       <c r="E438" t="s">
         <v>444</v>
@@ -13986,7 +13986,7 @@
         <v>51</v>
       </c>
       <c r="D482">
-        <v>1.150658740145688</v>
+        <v>1.095703883681917</v>
       </c>
       <c r="E482" t="s">
         <v>488</v>
@@ -14193,7 +14193,7 @@
         <v>61</v>
       </c>
       <c r="D491">
-        <v>0.8988574802427111</v>
+        <v>0.9574615316257979</v>
       </c>
       <c r="E491" t="s">
         <v>498</v>
@@ -14584,7 +14584,7 @@
         <v>78</v>
       </c>
       <c r="D508">
-        <v>1.272862680568345</v>
+        <v>1.212778406122782</v>
       </c>
       <c r="E508" t="s">
         <v>515</v>
@@ -15320,7 +15320,7 @@
         <v>111</v>
       </c>
       <c r="D540">
-        <v>1.00756770468875</v>
+        <v>1.021203662491408</v>
       </c>
       <c r="E540" t="s">
         <v>548</v>
@@ -20503,7 +20503,7 @@
         <v>382</v>
       </c>
       <c r="D766">
-        <v>3.16227766016838</v>
+        <v>1</v>
       </c>
       <c r="E766" t="s">
         <v>819</v>
@@ -20802,7 +20802,7 @@
         <v>397</v>
       </c>
       <c r="D779">
-        <v>1.016640439391935</v>
+        <v>1</v>
       </c>
       <c r="E779" t="s">
         <v>834</v>
@@ -22156,7 +22156,7 @@
         <v>34</v>
       </c>
       <c r="D838">
-        <v>0.7114185594254333</v>
+        <v>0.9960397854346239</v>
       </c>
       <c r="E838" t="s">
         <v>471</v>
@@ -22179,7 +22179,7 @@
         <v>441</v>
       </c>
       <c r="D839">
-        <v>0.9621954581957615</v>
+        <v>1</v>
       </c>
       <c r="E839" t="s">
         <v>878</v>
@@ -22317,7 +22317,7 @@
         <v>40</v>
       </c>
       <c r="D845">
-        <v>0.9682113675760698</v>
+        <v>1</v>
       </c>
       <c r="E845" t="s">
         <v>477</v>
@@ -22662,7 +22662,7 @@
         <v>55</v>
       </c>
       <c r="D860">
-        <v>0.960641190635014</v>
+        <v>0.9936546656523202</v>
       </c>
       <c r="E860" t="s">
         <v>492</v>
@@ -22938,7 +22938,7 @@
         <v>68</v>
       </c>
       <c r="D872">
-        <v>0.9435208218511622</v>
+        <v>0.9191648790388627</v>
       </c>
       <c r="E872" t="s">
         <v>505</v>
@@ -23007,7 +23007,7 @@
         <v>71</v>
       </c>
       <c r="D875">
-        <v>1.181582947778368</v>
+        <v>1.114479142547458</v>
       </c>
       <c r="E875" t="s">
         <v>508</v>
@@ -23122,7 +23122,7 @@
         <v>76</v>
       </c>
       <c r="D880">
-        <v>1.00598494657547</v>
+        <v>0.9844696372460893</v>
       </c>
       <c r="E880" t="s">
         <v>513</v>
@@ -23191,7 +23191,7 @@
         <v>79</v>
       </c>
       <c r="D883">
-        <v>1.060756516418188</v>
+        <v>1.030558837487099</v>
       </c>
       <c r="E883" t="s">
         <v>516</v>
@@ -23214,7 +23214,7 @@
         <v>80</v>
       </c>
       <c r="D884">
-        <v>1.034121957870416</v>
+        <v>0.9977257034301252</v>
       </c>
       <c r="E884" t="s">
         <v>517</v>
@@ -23306,7 +23306,7 @@
         <v>84</v>
       </c>
       <c r="D888">
-        <v>0.9996308072852849</v>
+        <v>1.027397629462476</v>
       </c>
       <c r="E888" t="s">
         <v>521</v>
@@ -23812,7 +23812,7 @@
         <v>106</v>
       </c>
       <c r="D910">
-        <v>1.080071322402297</v>
+        <v>1.031061016501513</v>
       </c>
       <c r="E910" t="s">
         <v>543</v>
@@ -24916,7 +24916,7 @@
         <v>160</v>
       </c>
       <c r="D958">
-        <v>1.114172029062311</v>
+        <v>1</v>
       </c>
       <c r="E958" t="s">
         <v>597</v>
@@ -27272,7 +27272,7 @@
         <v>268</v>
       </c>
       <c r="D1062">
-        <v>1.118033988749895</v>
+        <v>1</v>
       </c>
       <c r="E1062" t="s">
         <v>705</v>
@@ -32096,7 +32096,7 @@
         <v>63</v>
       </c>
       <c r="D1272">
-        <v>1.092261558636388</v>
+        <v>1.114695183536398</v>
       </c>
       <c r="E1272" t="s">
         <v>500</v>
@@ -32418,7 +32418,7 @@
         <v>77</v>
       </c>
       <c r="D1286">
-        <v>1.155809293405511</v>
+        <v>1.124839354959649</v>
       </c>
       <c r="E1286" t="s">
         <v>514</v>
@@ -32533,7 +32533,7 @@
         <v>82</v>
       </c>
       <c r="D1291">
-        <v>1.234133862993781</v>
+        <v>1.187149544519586</v>
       </c>
       <c r="E1291" t="s">
         <v>519</v>
@@ -34902,7 +34902,7 @@
         <v>199</v>
       </c>
       <c r="D1394">
-        <v>1</v>
+        <v>0.9969516552726524</v>
       </c>
       <c r="E1394" t="s">
         <v>636</v>
@@ -39703,7 +39703,7 @@
         <v>16</v>
       </c>
       <c r="D1603">
-        <v>1.129930946284548</v>
+        <v>0.9972650867806543</v>
       </c>
       <c r="E1603" t="s">
         <v>453</v>
@@ -40439,7 +40439,7 @@
         <v>47</v>
       </c>
       <c r="D1635">
-        <v>0.9880327440179041</v>
+        <v>0.989386532572883</v>
       </c>
       <c r="E1635" t="s">
         <v>484</v>
@@ -40807,7 +40807,7 @@
         <v>63</v>
       </c>
       <c r="D1651">
-        <v>1.063952924239906</v>
+        <v>1.073341824329731</v>
       </c>
       <c r="E1651" t="s">
         <v>500</v>
@@ -40853,7 +40853,7 @@
         <v>65</v>
       </c>
       <c r="D1653">
-        <v>1.203216437465592</v>
+        <v>1.162523651207338</v>
       </c>
       <c r="E1653" t="s">
         <v>502</v>
@@ -41106,7 +41106,7 @@
         <v>76</v>
       </c>
       <c r="D1664">
-        <v>0.9634233122442206</v>
+        <v>0.9700247839018866</v>
       </c>
       <c r="E1664" t="s">
         <v>513</v>
@@ -41152,7 +41152,7 @@
         <v>78</v>
       </c>
       <c r="D1666">
-        <v>1.031326597148139</v>
+        <v>1.044038505526948</v>
       </c>
       <c r="E1666" t="s">
         <v>515</v>
@@ -44610,7 +44610,7 @@
         <v>236</v>
       </c>
       <c r="D1817">
-        <v>0.9757892142718507</v>
+        <v>0.9862561859249056</v>
       </c>
       <c r="E1817" t="s">
         <v>673</v>
@@ -45070,7 +45070,7 @@
         <v>257</v>
       </c>
       <c r="D1837">
-        <v>0.9785514824693319</v>
+        <v>1</v>
       </c>
       <c r="E1837" t="s">
         <v>694</v>
@@ -46829,7 +46829,7 @@
         <v>346</v>
       </c>
       <c r="D1914">
-        <v>1.224744871391589</v>
+        <v>1</v>
       </c>
       <c r="E1914" t="s">
         <v>783</v>
@@ -48830,7 +48830,7 @@
         <v>7</v>
       </c>
       <c r="D2001">
-        <v>1.034184508765029</v>
+        <v>1.029318674568175</v>
       </c>
       <c r="E2001" t="s">
         <v>444</v>
@@ -49428,7 +49428,7 @@
         <v>33</v>
       </c>
       <c r="D2027">
-        <v>1.013791741763495</v>
+        <v>0.9994306655736392</v>
       </c>
       <c r="E2027" t="s">
         <v>470</v>
@@ -49474,7 +49474,7 @@
         <v>441</v>
       </c>
       <c r="D2029">
-        <v>0.9528848077310491</v>
+        <v>0.9789935265898748</v>
       </c>
       <c r="E2029" t="s">
         <v>878</v>
@@ -49865,7 +49865,7 @@
         <v>51</v>
       </c>
       <c r="D2046">
-        <v>1.076181421303986</v>
+        <v>1.069098055615127</v>
       </c>
       <c r="E2046" t="s">
         <v>488</v>
@@ -49911,7 +49911,7 @@
         <v>53</v>
       </c>
       <c r="D2048">
-        <v>0.9601008591332845</v>
+        <v>0.9601262378195724</v>
       </c>
       <c r="E2048" t="s">
         <v>490</v>
@@ -49934,7 +49934,7 @@
         <v>54</v>
       </c>
       <c r="D2049">
-        <v>1.140570028556337</v>
+        <v>1.131995369192585</v>
       </c>
       <c r="E2049" t="s">
         <v>491</v>
@@ -49957,7 +49957,7 @@
         <v>55</v>
       </c>
       <c r="D2050">
-        <v>1.070622255699483</v>
+        <v>1.064549352894556</v>
       </c>
       <c r="E2050" t="s">
         <v>492</v>
@@ -49980,7 +49980,7 @@
         <v>56</v>
       </c>
       <c r="D2051">
-        <v>0.8979832956157945</v>
+        <v>0.9010856404552486</v>
       </c>
       <c r="E2051" t="s">
         <v>493</v>
@@ -50049,7 +50049,7 @@
         <v>59</v>
       </c>
       <c r="D2054">
-        <v>0.9928465038496542</v>
+        <v>1</v>
       </c>
       <c r="E2054" t="s">
         <v>496</v>
@@ -50095,7 +50095,7 @@
         <v>61</v>
       </c>
       <c r="D2056">
-        <v>0.964002556183358</v>
+        <v>0.9542104425215877</v>
       </c>
       <c r="E2056" t="s">
         <v>498</v>
@@ -50118,7 +50118,7 @@
         <v>62</v>
       </c>
       <c r="D2057">
-        <v>1.09267465855929</v>
+        <v>1.067158855919311</v>
       </c>
       <c r="E2057" t="s">
         <v>499</v>
@@ -50141,7 +50141,7 @@
         <v>63</v>
       </c>
       <c r="D2058">
-        <v>1.149000654058943</v>
+        <v>1.126077258099672</v>
       </c>
       <c r="E2058" t="s">
         <v>500</v>
@@ -50164,7 +50164,7 @@
         <v>64</v>
       </c>
       <c r="D2059">
-        <v>1.069640269000659</v>
+        <v>1.068326858324198</v>
       </c>
       <c r="E2059" t="s">
         <v>501</v>
@@ -50187,7 +50187,7 @@
         <v>65</v>
       </c>
       <c r="D2060">
-        <v>1.069180585429068</v>
+        <v>1.049547414658018</v>
       </c>
       <c r="E2060" t="s">
         <v>502</v>
@@ -50210,7 +50210,7 @@
         <v>66</v>
       </c>
       <c r="D2061">
-        <v>1.046391718567342</v>
+        <v>1.043826780307818</v>
       </c>
       <c r="E2061" t="s">
         <v>503</v>
@@ -50509,7 +50509,7 @@
         <v>79</v>
       </c>
       <c r="D2074">
-        <v>1.084995256696782</v>
+        <v>1.051989797725168</v>
       </c>
       <c r="E2074" t="s">
         <v>516</v>
@@ -50532,7 +50532,7 @@
         <v>80</v>
       </c>
       <c r="D2075">
-        <v>0.9925515142880921</v>
+        <v>0.9995004025543395</v>
       </c>
       <c r="E2075" t="s">
         <v>517</v>
@@ -50624,7 +50624,7 @@
         <v>84</v>
       </c>
       <c r="D2079">
-        <v>1.052517315464164</v>
+        <v>1.028235947702596</v>
       </c>
       <c r="E2079" t="s">
         <v>521</v>
@@ -51015,7 +51015,7 @@
         <v>101</v>
       </c>
       <c r="D2096">
-        <v>1.003790779389895</v>
+        <v>0.9981908345841727</v>
       </c>
       <c r="E2096" t="s">
         <v>538</v>
@@ -54055,7 +54055,7 @@
         <v>236</v>
       </c>
       <c r="D2230">
-        <v>1.02220312487109</v>
+        <v>1.011144518316071</v>
       </c>
       <c r="E2230" t="s">
         <v>673</v>
@@ -55043,7 +55043,7 @@
         <v>280</v>
       </c>
       <c r="D2274">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="E2274" t="s">
         <v>717</v>
@@ -60315,7 +60315,7 @@
         <v>78</v>
       </c>
       <c r="D2504">
-        <v>1.038072405783569</v>
+        <v>1.066947824154763</v>
       </c>
       <c r="E2504" t="s">
         <v>515</v>
@@ -63719,7 +63719,7 @@
         <v>236</v>
       </c>
       <c r="D2652">
-        <v>1.073616029479312</v>
+        <v>1</v>
       </c>
       <c r="E2652" t="s">
         <v>673</v>
@@ -64777,7 +64777,7 @@
         <v>283</v>
       </c>
       <c r="D2698">
-        <v>0.9146912192286945</v>
+        <v>1</v>
       </c>
       <c r="E2698" t="s">
         <v>720</v>
@@ -67744,7 +67744,7 @@
         <v>7</v>
       </c>
       <c r="D2827">
-        <v>0.9232140122575172</v>
+        <v>0.954733993996948</v>
       </c>
       <c r="E2827" t="s">
         <v>444</v>
@@ -67882,7 +67882,7 @@
         <v>13</v>
       </c>
       <c r="D2833">
-        <v>0.9291282993427121</v>
+        <v>0.991129597227126</v>
       </c>
       <c r="E2833" t="s">
         <v>450</v>
@@ -67951,7 +67951,7 @@
         <v>16</v>
       </c>
       <c r="D2836">
-        <v>0.9252589620720579</v>
+        <v>0.9899467713262614</v>
       </c>
       <c r="E2836" t="s">
         <v>453</v>
@@ -68457,7 +68457,7 @@
         <v>37</v>
       </c>
       <c r="D2858">
-        <v>0.9660734807076202</v>
+        <v>0.970238105312627</v>
       </c>
       <c r="E2858" t="s">
         <v>474</v>
@@ -68894,7 +68894,7 @@
         <v>56</v>
       </c>
       <c r="D2877">
-        <v>0.9433036046872177</v>
+        <v>0.9337560199021198</v>
       </c>
       <c r="E2877" t="s">
         <v>493</v>
@@ -68917,7 +68917,7 @@
         <v>57</v>
       </c>
       <c r="D2878">
-        <v>1.106881024227439</v>
+        <v>1.059855154104954</v>
       </c>
       <c r="E2878" t="s">
         <v>494</v>
@@ -69055,7 +69055,7 @@
         <v>63</v>
       </c>
       <c r="D2884">
-        <v>1.070740014950565</v>
+        <v>1.047102726887186</v>
       </c>
       <c r="E2884" t="s">
         <v>500</v>
@@ -69170,7 +69170,7 @@
         <v>68</v>
       </c>
       <c r="D2889">
-        <v>0.9773213915502997</v>
+        <v>0.9745809572728867</v>
       </c>
       <c r="E2889" t="s">
         <v>505</v>
@@ -75894,7 +75894,7 @@
         <v>413</v>
       </c>
       <c r="D3182">
-        <v>0.9893422834982126</v>
+        <v>1.007695332652202</v>
       </c>
       <c r="E3182" t="s">
         <v>850</v>
